--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2643,8 +2643,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2817,8 +2817,8 @@
       <c r="E89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2946,8 +2946,8 @@
       <c r="E94" s="3">
         <v>-64600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3104,8 +3104,8 @@
       <c r="E100" s="3">
         <v>120900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3162,8 +3162,8 @@
       <c r="E102" s="3">
         <v>36100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-2000</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,64 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,28 +730,37 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +788,17 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +826,17 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +848,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G12" s="3">
         <v>6800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>16200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +918,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +956,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +994,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,37 +1013,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>26900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,28 +1063,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-26700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1105,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,28 +1117,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,28 +1155,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-23800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,37 +1213,55 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-23800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1289,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1327,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-23800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-23800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1441,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1479,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1517,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1555,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,57 +1573,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-23800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1669,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-23800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1772,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1788,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>142300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>78300</v>
+      </c>
+      <c r="G41" s="3">
         <v>64400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,23 +1820,32 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>236200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G42" s="3">
         <v>51400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,23 +1858,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1896,17 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,23 +1934,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1972,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>361300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>383900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>107300</v>
+      </c>
+      <c r="G46" s="3">
         <v>117400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +2010,17 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +2048,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G48" s="3">
         <v>11300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +2086,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2124,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2162,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +2200,17 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +2238,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2276,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>393700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>117800</v>
+      </c>
+      <c r="G54" s="3">
         <v>128700</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2314,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2336,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2352,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2384,17 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,23 +2422,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2460,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2498,17 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,23 +2536,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G62" s="3">
         <v>7900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2612,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2650,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2688,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2726,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2748,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2780,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,22 +2818,31 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>173100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2353,8 +2856,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2894,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-64700</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2932,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2970,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3008,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +3046,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>353100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>373900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-60000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +3084,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3122,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-23800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3225,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,17 +3239,17 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3257,17 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3295,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3333,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3371,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3409,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,28 +3447,37 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-2000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3485,17 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,26 +3507,29 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3539,17 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3577,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,28 +3615,37 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G94" s="3">
         <v>13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-64600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3653,17 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3675,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3707,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3745,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3783,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,28 +3821,37 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
+        <v>292300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>120900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3122,62 +3859,89 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>36100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-2000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -759,8 +763,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E12" s="3">
         <v>16800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E17" s="3">
         <v>25400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,23 +1093,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,23 +1192,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,23 +1643,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E41" s="3">
         <v>122700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,26 +1916,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>168300</v>
+      </c>
+      <c r="E42" s="3">
         <v>233700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>236200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1876,17 +1969,17 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>339700</v>
+      </c>
+      <c r="E46" s="3">
         <v>361300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>383900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>117400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E48" s="3">
         <v>9500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>351300</v>
+      </c>
+      <c r="E54" s="3">
         <v>370800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>393700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E66" s="3">
         <v>17800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>173100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E76" s="3">
         <v>353100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>373900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-71300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-60000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,8 +3450,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,13 +3730,14 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3527,12 +3748,12 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,31 +3851,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-210300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>292300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>120900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,17 +4114,20 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3894,8 +4143,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>36100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,16 +726,19 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -746,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>200</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -766,8 +770,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E12" s="3">
         <v>20400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E17" s="3">
         <v>30900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1111,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,35 +1175,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-25200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,35 +1701,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E41" s="3">
         <v>168600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>142300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,29 +2006,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E42" s="3">
         <v>168300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>233700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>236200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>51400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E46" s="3">
         <v>339700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>361300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>383900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>107300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>117400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,31 +2446,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E54" s="3">
         <v>351300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>393700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E60" s="3">
         <v>15500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>173100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-193600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-156000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E76" s="3">
         <v>330400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>353100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>373900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-71300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-60000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,8 +3652,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,17 +3951,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3751,12 +3972,12 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,34 +4081,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E94" s="3">
         <v>64800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-210300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4319,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>292300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>120900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,20 +4363,23 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,8 +4395,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E102" s="3">
         <v>46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +744,8 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -753,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>200</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -773,8 +777,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E12" s="3">
         <v>25700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,38 +1096,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E17" s="3">
         <v>37700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,27 +1155,27 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-25400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,27 +1221,27 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,27 +1268,27 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-25200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,38 +1348,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1489,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1536,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,27 +1785,27 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1818,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1912,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1959,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>243200</v>
+      </c>
+      <c r="E41" s="3">
         <v>225400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>78300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,32 +2096,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E42" s="3">
         <v>87900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>168300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>233700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>236200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>51400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,32 +2237,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E46" s="3">
         <v>316000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>339700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>361300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>383900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>107300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>117400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,17 +2566,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2595,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E54" s="3">
         <v>327500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>351300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>370800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>393700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E66" s="3">
         <v>25000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>173100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-193600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-156000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-125100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E76" s="3">
         <v>302500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>330400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>353100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>373900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-71300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-60000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3704,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3756,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,8 +3854,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,20 +4172,21 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3975,12 +4196,12 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,37 +4311,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>79700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>64800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-210300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,37 +4565,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>292300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>120900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4366,23 +4612,26 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4647,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E102" s="3">
         <v>56800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,8 +750,8 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -760,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>200</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -780,8 +783,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E12" s="3">
         <v>33100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E17" s="3">
         <v>45500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,27 +1187,27 @@
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-25400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,27 +1257,27 @@
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,27 +1307,27 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-25200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,31 +1440,34 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1445,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,27 +1857,27 @@
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
       </c>
       <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E41" s="3">
         <v>243200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>225400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2185,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E42" s="3">
         <v>32700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>168300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>233700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>236200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,35 +2235,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,35 +2335,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E46" s="3">
         <v>281900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>316000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>339700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>361300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>383900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>107300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>117400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,35 +2485,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E48" s="3">
         <v>32600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,20 +2685,23 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,8 +2717,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2616,8 +2735,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E54" s="3">
         <v>316500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>327500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>351300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>370800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>393700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,35 +2975,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E60" s="3">
         <v>24200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,35 +3125,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E62" s="3">
         <v>25100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E66" s="3">
         <v>49200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>173100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3378,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-297100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-193600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-156000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-125100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E76" s="3">
         <v>267300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>302500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>330400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>353100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>373900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-71300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-60000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,13 +4022,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3857,8 +4055,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,23 +4392,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,12 +4419,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,40 +4540,43 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>79700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>64800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-210300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,40 +4810,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>292300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>120900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4615,26 +4860,29 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4650,8 +4898,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4662,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,16 +737,19 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -753,8 +757,8 @@
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -766,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>200</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -786,8 +790,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E12" s="3">
         <v>41600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E17" s="3">
         <v>55800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,16 +1200,19 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-55800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1190,27 +1220,27 @@
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-25400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,16 +1276,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>-1100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1260,27 +1294,27 @@
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
       </c>
       <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,16 +1327,19 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-56800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1310,27 +1347,27 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-25200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,17 +1486,20 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1515,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,16 +1910,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>1100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1860,27 +1930,27 @@
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
       </c>
       <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E41" s="3">
         <v>201700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>225400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E42" s="3">
         <v>46500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>168300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>233700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>236200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,38 +2328,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,38 +2434,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E46" s="3">
         <v>253300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>281900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>316000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>339700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>361300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>383900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>117400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E48" s="3">
         <v>31300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,23 +2805,26 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2720,8 +2840,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E54" s="3">
         <v>286600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>316500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>327500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>351300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>370800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>393700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>8400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>29500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
         <v>37900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,38 +3271,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E62" s="3">
         <v>23500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E66" s="3">
         <v>61300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>173100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-340900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-297100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-239100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-193600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-156000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E76" s="3">
         <v>225300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>302500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>330400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>353100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>373900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-71300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-60000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,17 +4221,18 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4058,8 +4257,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,26 +4613,27 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4422,12 +4643,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,43 +4770,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>55000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>79700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>64800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-210300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,43 +5056,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>292300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>120900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4872,20 +5121,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4901,8 +5150,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-101500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,19 +741,22 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -760,8 +764,8 @@
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -773,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>200</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -793,8 +797,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +933,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E12" s="3">
         <v>29100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1176,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E17" s="3">
         <v>43200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,47 +1230,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-55800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-25400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,47 +1310,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
       </c>
       <c r="L20" s="3">
         <v>500</v>
       </c>
       <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-56800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-25200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1476,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,20 +1532,23 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1564,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1644,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1700,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,47 +1980,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
       </c>
       <c r="L32" s="3">
         <v>-500</v>
       </c>
       <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2036,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-43900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2148,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-43900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2204,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E41" s="3">
         <v>100200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>201700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>243200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>225400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>142300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,41 +2365,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E42" s="3">
         <v>101200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>87900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>168300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>233700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>236200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2533,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2589,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E46" s="3">
         <v>206400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>253300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>281900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>316000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>339700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>361300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>383900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>117400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E48" s="3">
         <v>22800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,26 +2925,29 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,8 +2963,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E54" s="3">
         <v>231100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>286600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>316500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>327500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>351300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>370800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>393700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>128700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,41 +3249,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3305,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E62" s="3">
         <v>20800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E66" s="3">
         <v>39400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>173100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-340900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-297100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-239100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-193600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-156000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-125100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E76" s="3">
         <v>191700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>302500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>330400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>353100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>373900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-71300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-60000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4279,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4340,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-43900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,20 +4420,21 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4260,8 +4459,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,29 +4834,30 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4646,12 +4867,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,46 +5000,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>55000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>79700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>64800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-210300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>25000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,46 +5302,49 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>292300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>120900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5124,20 +5373,20 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5153,8 +5402,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-101500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,8 +745,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,11 +759,11 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -767,8 +771,8 @@
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -780,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>200</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -800,8 +804,11 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,50 +947,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>31400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,50 +1203,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,8 +1260,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,39 +1274,39 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-55800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,39 +1356,39 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,8 +1401,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,39 +1415,39 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-56800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-25200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,50 +1519,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,23 +1578,26 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,8 +1613,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,50 +1696,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,50 +1755,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,39 +2064,39 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,50 +2109,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,50 +2227,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,55 +2286,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E41" s="3">
         <v>71100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>201700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>243200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>225400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>168600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,44 +2455,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E42" s="3">
         <v>101600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>101200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>87900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>168300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>233700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>236200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,44 +2514,47 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,44 +2632,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E46" s="3">
         <v>176500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>206400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>253300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>281900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>316000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>339700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>361300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>383900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>107300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>117400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,44 +2809,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E48" s="3">
         <v>21800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,29 +3045,32 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3086,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293700</v>
+      </c>
+      <c r="E54" s="3">
         <v>200000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>231100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>286600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>316500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>327500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>351300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>370800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>393700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>128700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,44 +3386,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E59" s="3">
         <v>16100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E60" s="3">
         <v>21600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>37900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E62" s="3">
         <v>20300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E66" s="3">
         <v>41900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>173100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-427600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-340900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-297100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-239100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-193600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-156000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-125100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E76" s="3">
         <v>158100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>191700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>302500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>330400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>353100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>373900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-71300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-60000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,55 +4471,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,50 +4535,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4430,14 +4629,14 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4462,8 +4661,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,21 +5067,21 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4870,12 +5091,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,49 +5230,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>55000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>79700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>64800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-210300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>25000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,49 +5548,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>292300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>120900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5376,20 +5625,20 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5405,8 +5654,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-101500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,11 +765,11 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -774,8 +777,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -787,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>200</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -807,8 +810,11 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E12" s="3">
         <v>30000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E17" s="3">
         <v>43000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,39 +1306,39 @@
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-55800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-25400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,39 +1392,39 @@
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
       </c>
       <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,39 +1454,39 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-56800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-25200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,53 +1561,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,26 +1623,29 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1661,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1640,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-57900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-57900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,39 +2136,39 @@
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
       </c>
       <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-57900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-57900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,47 +2484,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E41" s="3">
         <v>123800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>201700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>243200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>225400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,47 +2544,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E42" s="3">
         <v>140300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>101600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>101200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>87900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>168300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>233700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>236200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,47 +2606,50 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,47 +2730,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E46" s="3">
         <v>272000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>176500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>206400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>253300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>281900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>316000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>339700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>361300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>383900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>107300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>117400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,47 +2916,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,32 +3164,35 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3089,8 +3208,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3107,8 +3226,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E54" s="3">
         <v>293700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>231100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>286600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>316500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>327500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>351300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>370800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>393700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>128700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,47 +3400,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,47 +3522,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E59" s="3">
         <v>15800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,47 +3584,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>37900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,47 +3708,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,47 +3956,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4035,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>173100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-465800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-427600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-340900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-297100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-239100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-193600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-125100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E76" s="3">
         <v>253200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>191700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>353100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>373900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-71300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-60000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-57900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4632,14 +4830,14 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4664,8 +4862,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,21 +5290,21 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5094,12 +5314,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,52 +5459,55 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>55000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>79700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>64800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-210300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>25000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,52 +5793,55 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>126400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>292300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>120900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5628,20 +5876,20 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5657,8 +5905,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5669,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>52700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-101500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,37 +752,40 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -793,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>200</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -813,8 +817,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E12" s="3">
         <v>28400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>41600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E17" s="3">
         <v>40400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,56 +1319,59 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-44600</v>
       </c>
       <c r="H18" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-55800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-45500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-25400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,56 +1411,57 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>500</v>
       </c>
       <c r="O20" s="3">
         <v>500</v>
       </c>
       <c r="P20" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,56 +1474,59 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-44400</v>
       </c>
       <c r="H21" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-56800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-45500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-25200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,29 +1669,32 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,8 +1710,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-42100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-57900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-42100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-57900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,56 +2189,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-500</v>
       </c>
       <c r="O32" s="3">
         <v>-500</v>
       </c>
       <c r="P32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-57900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-57900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,50 +2571,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E41" s="3">
         <v>106100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>201700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>243200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>225400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>78300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,50 +2634,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E42" s="3">
         <v>127700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>140300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>101600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>101200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>87900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>233700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>236200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +2699,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2618,41 +2711,41 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,50 +2829,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,50 +2894,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E46" s="3">
         <v>243100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>272000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>176500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>206400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>253300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>281900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>316000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>339700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>361300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>383900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>107300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>117400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,50 +3024,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E48" s="3">
         <v>32600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3089,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,35 +3284,38 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3331,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E54" s="3">
         <v>277100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>293700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>231100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>286600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>316500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>327500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>351300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>370800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>393700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>128700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,50 +3531,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,50 +3659,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E59" s="3">
         <v>21300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,50 +3724,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>37900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,50 +3854,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E62" s="3">
         <v>28200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,50 +4114,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E66" s="3">
         <v>52600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4205,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>173100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-507000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-465800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-427600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-340900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-297100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-239100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-193600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-125100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E76" s="3">
         <v>224500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>253200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>191700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>302500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>330400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>353100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>373900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-71300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-60000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-57900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,14 +5032,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5064,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-36400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,25 +5496,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5303,11 +5524,11 @@
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5317,12 +5538,12 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,55 +5689,58 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>55000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>79700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>64800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-210300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>25000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,55 +6039,58 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>126400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>292300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>120900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5858,13 +6104,16 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5879,20 +6128,20 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5908,8 +6157,8 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>36100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
   <si>
     <t>ALVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +756,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,14 +785,14 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -800,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>200</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -820,8 +824,11 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +988,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E12" s="3">
         <v>30700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>41600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1283,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E17" s="3">
         <v>43200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1349,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,50 +1361,50 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-43000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-43200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-55800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-45500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-25400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1445,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1421,50 +1455,50 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>500</v>
       </c>
       <c r="P20" s="3">
         <v>500</v>
       </c>
       <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,8 +1511,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,50 +1523,50 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-38500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-56800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-45500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-25200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-23800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1579,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,59 +1647,62 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1715,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,23 +1727,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1713,8 +1759,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1851,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1919,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-57900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2259,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2201,50 +2271,50 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-500</v>
       </c>
       <c r="P32" s="3">
         <v>-500</v>
       </c>
       <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,59 +2327,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-57900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2463,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-57900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2531,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,53 +2658,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E41" s="3">
         <v>115700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>201700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>243200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>225400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2724,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E42" s="3">
         <v>86900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>127700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>140300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>101600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>101200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>168300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>233700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>236200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,53 +2792,56 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2860,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,53 +2928,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,53 +2996,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E46" s="3">
         <v>212300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>243100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>272000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>176500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>253300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>281900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>316000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>339700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>361300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>383900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>107300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>117400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3064,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3027,53 +3132,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E48" s="3">
         <v>30400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3200,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,38 +3404,41 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,8 +3454,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,53 +3540,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282700</v>
+      </c>
+      <c r="E54" s="3">
         <v>244000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>277100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>293700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>231100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>286600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>316500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>327500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>351300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>370800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>393700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>128700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,53 +3662,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,53 +3796,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,53 +3864,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E60" s="3">
         <v>25000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3932,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,53 +4000,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,53 +4272,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E66" s="3">
         <v>50500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4376,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>173100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,53 +4638,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-552200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-507000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-465800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-427600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-385600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-340900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-297100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-239100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-193600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-156000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-125100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,53 +4910,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E76" s="3">
         <v>193500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>253200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>158100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>191700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>267300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>302500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>353100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>373900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-71300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5046,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5119,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-57900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,8 +5215,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5035,14 +5234,14 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -5067,8 +5266,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5621,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-36400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,8 +5717,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5527,11 +5748,11 @@
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5541,12 +5762,12 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,58 +5919,61 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E94" s="3">
         <v>41700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>55000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>79700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>64800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-210300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>25000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,58 +6285,61 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>126400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>292300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>120900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6107,16 +6353,19 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6131,20 +6380,20 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6160,8 +6409,8 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6172,59 +6421,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>64000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALVR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -759,8 +760,11 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,14 +792,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -807,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>200</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -827,8 +831,11 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,62 +1002,63 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E12" s="3">
         <v>34800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>41600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,62 +1310,63 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E17" s="3">
         <v>47300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1379,11 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1361,53 +1391,53 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-43200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-43200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-55800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,50 +1492,50 @@
         <v>2000</v>
       </c>
       <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
       </c>
       <c r="Q20" s="3">
         <v>500</v>
       </c>
       <c r="R20" s="3">
+        <v>500</v>
+      </c>
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,8 +1548,11 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,53 +1560,53 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-43400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-56800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-45500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-25200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,8 +1619,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,62 +1690,65 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1761,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,23 +1776,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1762,8 +1808,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,62 +1903,65 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-44600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-57900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,62 +1974,65 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-44600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-57900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,50 +2344,50 @@
         <v>-2000</v>
       </c>
       <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
       </c>
       <c r="Q32" s="3">
         <v>-500</v>
       </c>
       <c r="R32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,62 +2400,65 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-57900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,62 +2542,65 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-57900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,67 +2613,70 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2689,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,56 +2745,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E41" s="3">
         <v>197000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>201700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>243200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>225400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,56 +2814,59 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E42" s="3">
         <v>49600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>127700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>140300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>101600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>101200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>168300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>233700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>236200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>51400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,56 +2885,59 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>500</v>
       </c>
       <c r="N43" s="3">
         <v>500</v>
       </c>
       <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,56 +3027,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,56 +3098,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E46" s="3">
         <v>252900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>243100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>272000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>176500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>206400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>253300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>281900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>316000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>339700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>361300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>383900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>107300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>117400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,56 +3240,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,41 +3524,44 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,8 +3577,8 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,56 +3666,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>248300</v>
+      </c>
+      <c r="E54" s="3">
         <v>282700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>244000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>277100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>231100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>286600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>327500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>351300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>370800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>393700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>128700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,56 +3793,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3799,56 +3933,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E59" s="3">
         <v>25400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,56 +4004,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E60" s="3">
         <v>30600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4075,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,56 +4146,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E62" s="3">
         <v>23000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,56 +4430,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4547,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>173100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>173100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>173100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,56 +4812,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-596500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-552200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-507000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-465800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-427600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-385600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-340900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-297100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-239100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-193600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-156000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-125100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-99900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-64700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,56 +5096,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E76" s="3">
         <v>229100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>193500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>253200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>158100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>191700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>302500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>353100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>373900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-60000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,67 +5238,70 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5122,62 +5314,65 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-57900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5190,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5237,14 +5436,14 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5269,8 +5468,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,62 +5838,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-46500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5751,11 +5972,11 @@
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5765,12 +5986,12 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,61 +6149,64 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E94" s="3">
         <v>37900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>41700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>55000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>64800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-210300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>25000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5990,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,61 +6531,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>126400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>292300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>120900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6356,16 +6602,19 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6383,20 +6632,20 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6412,8 +6661,8 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6424,62 +6673,65 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="E102" s="3">
         <v>81300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-101500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>64000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6490,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
